--- a/Documentation/Gantt chart.xlsx
+++ b/Documentation/Gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stupc\Documents\GitHub\trip-clothing-planner\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stupc\Documents\GitHub\trip-clothing-planner\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2C9C8-2FE5-4E8A-B00E-953CA0BC7163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729EBA35-CB26-4105-BE33-E6999BFA6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="78">
   <si>
     <t>GANTT CHART SD2 - CHATBOT</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Project Conclusion - App fully functioning</t>
   </si>
   <si>
-    <t>Project Performance / Monitoring</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prototype </t>
   </si>
   <si>
@@ -297,6 +294,27 @@
   </si>
   <si>
     <t>Fill project doc</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Update files</t>
+  </si>
+  <si>
+    <t>Serch for improvements</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Update images</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Update repository</t>
   </si>
 </sst>
 </file>
@@ -740,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -906,10 +924,6 @@
     <xf numFmtId="165" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,11 +1307,12 @@
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG50"/>
+  <dimension ref="A1:BG55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1316,38 +1331,38 @@
   <sheetData>
     <row r="1" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -1379,36 +1394,36 @@
     </row>
     <row r="2" spans="1:59" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
@@ -1501,39 +1516,39 @@
     </row>
     <row r="4" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -1568,38 +1583,38 @@
     </row>
     <row r="5" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="83" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="1"/>
@@ -1635,14 +1650,14 @@
     </row>
     <row r="6" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1759,169 +1774,169 @@
     </row>
     <row r="8" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="85" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="73" t="s">
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
       <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="75" t="s">
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="78" t="s">
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="79" t="s">
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="80" t="s">
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="80" t="s">
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="80" t="s">
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="76"/>
-      <c r="BF9" s="77"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="75"/>
       <c r="BG9" s="19"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="21" t="s">
         <v>25</v>
       </c>
@@ -2076,13 +2091,13 @@
     </row>
     <row r="11" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="21">
         <v>9</v>
       </c>
@@ -2303,7 +2318,7 @@
     <row r="13" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>31</v>
@@ -2378,7 +2393,7 @@
     <row r="14" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>33</v>
@@ -2453,7 +2468,7 @@
     <row r="15" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>34</v>
@@ -2528,7 +2543,7 @@
     <row r="16" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>35</v>
@@ -2603,7 +2618,7 @@
     <row r="17" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>37</v>
@@ -2678,10 +2693,10 @@
     <row r="18" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>38</v>
@@ -2753,7 +2768,7 @@
     <row r="19" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>39</v>
@@ -2828,10 +2843,10 @@
     <row r="20" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>36</v>
@@ -3128,7 +3143,7 @@
     <row r="24" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>43</v>
@@ -3203,7 +3218,7 @@
     <row r="25" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>44</v>
@@ -3278,7 +3293,7 @@
     <row r="26" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>45</v>
@@ -3353,7 +3368,7 @@
     <row r="27" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>46</v>
@@ -3428,10 +3443,10 @@
     <row r="28" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>38</v>
@@ -3503,10 +3518,10 @@
     <row r="29" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>32</v>
@@ -3578,10 +3593,10 @@
     <row r="30" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="53" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>71</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>38</v>
@@ -3718,25 +3733,25 @@
     <row r="32" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="38">
+        <v>45740</v>
+      </c>
+      <c r="F32" s="38">
+        <v>45746</v>
       </c>
       <c r="G32" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="58"/>
@@ -3753,13 +3768,13 @@
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
       <c r="AE32" s="46"/>
       <c r="AF32" s="46"/>
       <c r="AG32" s="46"/>
@@ -3792,26 +3807,32 @@
     </row>
     <row r="33" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="C33" s="37" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="E33" s="38">
+        <v>45740</v>
+      </c>
+      <c r="F33" s="38">
+        <v>45746</v>
+      </c>
       <c r="G33" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33" s="40">
-        <v>0</v>
-      </c>
-      <c r="I33" s="61"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="45"/>
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
@@ -3822,13 +3843,13 @@
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
       <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
       <c r="AE33" s="46"/>
       <c r="AF33" s="46"/>
       <c r="AG33" s="46"/>
@@ -3861,26 +3882,32 @@
     </row>
     <row r="34" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
+      <c r="B34" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="C34" s="37" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="E34" s="38">
+        <v>45740</v>
+      </c>
+      <c r="F34" s="38">
+        <v>45746</v>
+      </c>
       <c r="G34" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H34" s="40">
-        <v>0</v>
-      </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="45"/>
       <c r="O34" s="45"/>
       <c r="P34" s="45"/>
@@ -3891,13 +3918,13 @@
       <c r="U34" s="45"/>
       <c r="V34" s="45"/>
       <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
       <c r="AE34" s="46"/>
       <c r="AF34" s="46"/>
       <c r="AG34" s="46"/>
@@ -3930,22 +3957,28 @@
     </row>
     <row r="35" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" s="37" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="E35" s="38">
+        <v>45746</v>
+      </c>
+      <c r="F35" s="38">
+        <v>45746</v>
+      </c>
       <c r="G35" s="39">
-        <v>0</v>
-      </c>
-      <c r="H35" s="48">
-        <v>0</v>
-      </c>
-      <c r="I35" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="40">
+        <v>1</v>
+      </c>
+      <c r="I35" s="59"/>
       <c r="J35" s="44"/>
       <c r="K35" s="45"/>
       <c r="L35" s="45"/>
@@ -3966,7 +3999,7 @@
       <c r="AA35" s="45"/>
       <c r="AB35" s="45"/>
       <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
+      <c r="AD35" s="41"/>
       <c r="AE35" s="46"/>
       <c r="AF35" s="46"/>
       <c r="AG35" s="46"/>
@@ -3997,93 +4030,109 @@
       <c r="BF35" s="46"/>
       <c r="BG35" s="35"/>
     </row>
-    <row r="36" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="28">
-        <v>3</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="32"/>
-      <c r="AW36" s="32"/>
-      <c r="AX36" s="32"/>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="32"/>
-      <c r="BA36" s="32"/>
-      <c r="BB36" s="32"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="32"/>
-      <c r="BG36" s="14"/>
+    <row r="36" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="38">
+        <v>45747</v>
+      </c>
+      <c r="F36" s="38">
+        <v>45747</v>
+      </c>
+      <c r="G36" s="39">
+        <v>1</v>
+      </c>
+      <c r="H36" s="40">
+        <v>1</v>
+      </c>
+      <c r="I36" s="59"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="46"/>
+      <c r="BB36" s="46"/>
+      <c r="BC36" s="46"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="46"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="35"/>
     </row>
     <row r="37" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
+      <c r="B37" s="36" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" s="37" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="38">
+        <v>45747</v>
+      </c>
+      <c r="F37" s="38">
+        <v>45747</v>
+      </c>
       <c r="G37" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="40">
-        <v>0</v>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="59"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
@@ -4101,7 +4150,7 @@
       <c r="AB37" s="45"/>
       <c r="AC37" s="46"/>
       <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
+      <c r="AE37" s="41"/>
       <c r="AF37" s="46"/>
       <c r="AG37" s="46"/>
       <c r="AH37" s="46"/>
@@ -4140,15 +4189,19 @@
       <c r="D38" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+      <c r="E38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="G38" s="39">
         <v>0</v>
       </c>
       <c r="H38" s="40">
         <v>0</v>
       </c>
-      <c r="I38" s="61"/>
+      <c r="I38" s="59"/>
       <c r="J38" s="44"/>
       <c r="K38" s="45"/>
       <c r="L38" s="45"/>
@@ -4209,15 +4262,19 @@
       <c r="D39" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="G39" s="39">
         <v>0</v>
       </c>
       <c r="H39" s="40">
         <v>0</v>
       </c>
-      <c r="I39" s="61"/>
+      <c r="I39" s="59"/>
       <c r="J39" s="44"/>
       <c r="K39" s="45"/>
       <c r="L39" s="45"/>
@@ -4278,15 +4335,19 @@
       <c r="D40" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="G40" s="39">
         <v>0</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="40">
         <v>0</v>
       </c>
-      <c r="I40" s="61"/>
+      <c r="I40" s="59"/>
       <c r="J40" s="44"/>
       <c r="K40" s="45"/>
       <c r="L40" s="45"/>
@@ -4347,15 +4408,19 @@
       <c r="D41" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="E41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="G41" s="39">
         <v>0</v>
       </c>
       <c r="H41" s="40">
         <v>0</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
@@ -4416,15 +4481,19 @@
       <c r="D42" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
+      <c r="E42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="G42" s="39">
         <v>0</v>
       </c>
       <c r="H42" s="40">
         <v>0</v>
       </c>
-      <c r="I42" s="61"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="44"/>
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
@@ -4476,144 +4545,150 @@
       <c r="BF42" s="46"/>
       <c r="BG42" s="35"/>
     </row>
-    <row r="43" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="28">
-        <v>4</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="32"/>
-      <c r="AK43" s="32"/>
-      <c r="AL43" s="32"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="32"/>
-      <c r="AO43" s="32"/>
-      <c r="AP43" s="32"/>
-      <c r="AQ43" s="32"/>
-      <c r="AR43" s="32"/>
-      <c r="AS43" s="32"/>
-      <c r="AT43" s="32"/>
-      <c r="AU43" s="32"/>
-      <c r="AV43" s="32"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="32"/>
-      <c r="AY43" s="32"/>
-      <c r="AZ43" s="32"/>
-      <c r="BA43" s="32"/>
-      <c r="BB43" s="32"/>
-      <c r="BC43" s="32"/>
-      <c r="BD43" s="32"/>
-      <c r="BE43" s="32"/>
-      <c r="BF43" s="32"/>
-      <c r="BG43" s="14"/>
+    <row r="43" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0</v>
+      </c>
+      <c r="H43" s="40">
+        <v>0</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="45"/>
+      <c r="AM43" s="45"/>
+      <c r="AN43" s="45"/>
+      <c r="AO43" s="45"/>
+      <c r="AP43" s="45"/>
+      <c r="AQ43" s="45"/>
+      <c r="AR43" s="45"/>
+      <c r="AS43" s="45"/>
+      <c r="AT43" s="45"/>
+      <c r="AU43" s="45"/>
+      <c r="AV43" s="45"/>
+      <c r="AW43" s="45"/>
+      <c r="AX43" s="45"/>
+      <c r="AY43" s="45"/>
+      <c r="AZ43" s="45"/>
+      <c r="BA43" s="46"/>
+      <c r="BB43" s="46"/>
+      <c r="BC43" s="46"/>
+      <c r="BD43" s="46"/>
+      <c r="BE43" s="46"/>
+      <c r="BF43" s="46"/>
+      <c r="BG43" s="35"/>
     </row>
     <row r="44" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="36" t="s">
-        <v>65</v>
-      </c>
+      <c r="B44" s="36"/>
       <c r="C44" s="37" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="38">
-        <v>45726</v>
-      </c>
-      <c r="F44" s="38">
-        <v>45774</v>
+        <v>42</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="G44" s="39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H44" s="40">
         <v>0</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="63"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="63"/>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="63"/>
-      <c r="AI44" s="63"/>
-      <c r="AJ44" s="63"/>
-      <c r="AK44" s="63"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
-      <c r="BA44" s="63"/>
-      <c r="BB44" s="63"/>
-      <c r="BC44" s="63"/>
-      <c r="BD44" s="63"/>
-      <c r="BE44" s="63"/>
-      <c r="BF44" s="63"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="46"/>
+      <c r="AJ44" s="46"/>
+      <c r="AK44" s="46"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="45"/>
+      <c r="AN44" s="45"/>
+      <c r="AO44" s="45"/>
+      <c r="AP44" s="45"/>
+      <c r="AQ44" s="45"/>
+      <c r="AR44" s="45"/>
+      <c r="AS44" s="45"/>
+      <c r="AT44" s="45"/>
+      <c r="AU44" s="45"/>
+      <c r="AV44" s="45"/>
+      <c r="AW44" s="45"/>
+      <c r="AX44" s="45"/>
+      <c r="AY44" s="45"/>
+      <c r="AZ44" s="45"/>
+      <c r="BA44" s="46"/>
+      <c r="BB44" s="46"/>
+      <c r="BC44" s="46"/>
+      <c r="BD44" s="46"/>
+      <c r="BE44" s="46"/>
+      <c r="BF44" s="46"/>
       <c r="BG44" s="35"/>
     </row>
     <row r="45" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4625,15 +4700,19 @@
       <c r="D45" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
+      <c r="E45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="G45" s="39">
         <v>0</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="48">
         <v>0</v>
       </c>
-      <c r="I45" s="61"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="44"/>
       <c r="K45" s="45"/>
       <c r="L45" s="45"/>
@@ -4685,326 +4764,673 @@
       <c r="BF45" s="46"/>
       <c r="BG45" s="35"/>
     </row>
-    <row r="46" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39">
-        <v>0</v>
-      </c>
-      <c r="H46" s="40">
-        <v>0</v>
-      </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
-      <c r="AH46" s="46"/>
-      <c r="AI46" s="46"/>
-      <c r="AJ46" s="46"/>
-      <c r="AK46" s="46"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
-      <c r="AO46" s="45"/>
-      <c r="AP46" s="45"/>
-      <c r="AQ46" s="45"/>
-      <c r="AR46" s="45"/>
-      <c r="AS46" s="45"/>
-      <c r="AT46" s="45"/>
-      <c r="AU46" s="45"/>
-      <c r="AV46" s="45"/>
-      <c r="AW46" s="45"/>
-      <c r="AX46" s="45"/>
-      <c r="AY46" s="45"/>
-      <c r="AZ46" s="45"/>
-      <c r="BA46" s="46"/>
-      <c r="BB46" s="46"/>
-      <c r="BC46" s="46"/>
-      <c r="BD46" s="46"/>
-      <c r="BE46" s="46"/>
-      <c r="BF46" s="46"/>
-      <c r="BG46" s="35"/>
+    <row r="46" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="28">
+        <v>3</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
+      <c r="AM46" s="32"/>
+      <c r="AN46" s="32"/>
+      <c r="AO46" s="32"/>
+      <c r="AP46" s="32"/>
+      <c r="AQ46" s="32"/>
+      <c r="AR46" s="32"/>
+      <c r="AS46" s="32"/>
+      <c r="AT46" s="32"/>
+      <c r="AU46" s="32"/>
+      <c r="AV46" s="32"/>
+      <c r="AW46" s="32"/>
+      <c r="AX46" s="32"/>
+      <c r="AY46" s="32"/>
+      <c r="AZ46" s="32"/>
+      <c r="BA46" s="32"/>
+      <c r="BB46" s="32"/>
+      <c r="BC46" s="32"/>
+      <c r="BD46" s="32"/>
+      <c r="BE46" s="32"/>
+      <c r="BF46" s="32"/>
+      <c r="BG46" s="14"/>
     </row>
     <row r="47" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
+      <c r="B47" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="C47" s="37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="E47" s="38">
+        <v>45726</v>
+      </c>
+      <c r="F47" s="38">
+        <v>45774</v>
+      </c>
       <c r="G47" s="39">
-        <v>0</v>
-      </c>
-      <c r="H47" s="48">
-        <v>0</v>
-      </c>
-      <c r="I47" s="61"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="46"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
-      <c r="AJ47" s="46"/>
-      <c r="AK47" s="46"/>
-      <c r="AL47" s="45"/>
-      <c r="AM47" s="45"/>
-      <c r="AN47" s="45"/>
-      <c r="AO47" s="45"/>
-      <c r="AP47" s="45"/>
-      <c r="AQ47" s="45"/>
-      <c r="AR47" s="45"/>
-      <c r="AS47" s="45"/>
-      <c r="AT47" s="45"/>
-      <c r="AU47" s="45"/>
-      <c r="AV47" s="45"/>
-      <c r="AW47" s="45"/>
-      <c r="AX47" s="45"/>
-      <c r="AY47" s="45"/>
-      <c r="AZ47" s="45"/>
-      <c r="BA47" s="46"/>
-      <c r="BB47" s="46"/>
-      <c r="BC47" s="46"/>
-      <c r="BD47" s="46"/>
-      <c r="BE47" s="46"/>
-      <c r="BF47" s="46"/>
+        <v>50</v>
+      </c>
+      <c r="H47" s="40">
+        <v>0.42</v>
+      </c>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="60"/>
+      <c r="AN47" s="60"/>
+      <c r="AO47" s="60"/>
+      <c r="AP47" s="60"/>
+      <c r="AQ47" s="60"/>
+      <c r="AR47" s="60"/>
+      <c r="AS47" s="60"/>
+      <c r="AT47" s="60"/>
+      <c r="AU47" s="60"/>
+      <c r="AV47" s="60"/>
+      <c r="AW47" s="60"/>
+      <c r="AX47" s="60"/>
+      <c r="AY47" s="60"/>
+      <c r="AZ47" s="60"/>
+      <c r="BA47" s="61"/>
+      <c r="BB47" s="61"/>
+      <c r="BC47" s="61"/>
+      <c r="BD47" s="61"/>
+      <c r="BE47" s="61"/>
+      <c r="BF47" s="61"/>
       <c r="BG47" s="35"/>
     </row>
-    <row r="48" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
-      <c r="AN48" s="14"/>
-      <c r="AO48" s="14"/>
-      <c r="AP48" s="14"/>
-      <c r="AQ48" s="14"/>
-      <c r="AR48" s="14"/>
-      <c r="AS48" s="14"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="14"/>
-      <c r="AV48" s="14"/>
-      <c r="AW48" s="14"/>
-      <c r="AX48" s="14"/>
-      <c r="AY48" s="14"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
-      <c r="BB48" s="14"/>
-      <c r="BC48" s="14"/>
-      <c r="BD48" s="14"/>
-      <c r="BE48" s="14"/>
-      <c r="BF48" s="14"/>
-      <c r="BG48" s="14"/>
+    <row r="48" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+      <c r="H48" s="40">
+        <v>0</v>
+      </c>
+      <c r="I48" s="59"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
+      <c r="AP48" s="45"/>
+      <c r="AQ48" s="45"/>
+      <c r="AR48" s="45"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="45"/>
+      <c r="AU48" s="45"/>
+      <c r="AV48" s="45"/>
+      <c r="AW48" s="45"/>
+      <c r="AX48" s="45"/>
+      <c r="AY48" s="45"/>
+      <c r="AZ48" s="45"/>
+      <c r="BA48" s="46"/>
+      <c r="BB48" s="46"/>
+      <c r="BC48" s="46"/>
+      <c r="BD48" s="46"/>
+      <c r="BE48" s="46"/>
+      <c r="BF48" s="46"/>
+      <c r="BG48" s="35"/>
     </row>
-    <row r="49" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="14"/>
-      <c r="AV49" s="14"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="14"/>
-      <c r="BC49" s="14"/>
-      <c r="BD49" s="14"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="14"/>
-      <c r="BG49" s="14"/>
+    <row r="49" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39">
+        <v>0</v>
+      </c>
+      <c r="H49" s="40">
+        <v>0</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="45"/>
+      <c r="AM49" s="45"/>
+      <c r="AN49" s="45"/>
+      <c r="AO49" s="45"/>
+      <c r="AP49" s="45"/>
+      <c r="AQ49" s="45"/>
+      <c r="AR49" s="45"/>
+      <c r="AS49" s="45"/>
+      <c r="AT49" s="45"/>
+      <c r="AU49" s="45"/>
+      <c r="AV49" s="45"/>
+      <c r="AW49" s="45"/>
+      <c r="AX49" s="45"/>
+      <c r="AY49" s="45"/>
+      <c r="AZ49" s="45"/>
+      <c r="BA49" s="46"/>
+      <c r="BB49" s="46"/>
+      <c r="BC49" s="46"/>
+      <c r="BD49" s="46"/>
+      <c r="BE49" s="46"/>
+      <c r="BF49" s="46"/>
+      <c r="BG49" s="35"/>
     </row>
-    <row r="50" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-      <c r="AK50" s="14"/>
-      <c r="AL50" s="14"/>
-      <c r="AM50" s="14"/>
-      <c r="AN50" s="14"/>
-      <c r="AO50" s="14"/>
-      <c r="AP50" s="14"/>
-      <c r="AQ50" s="14"/>
-      <c r="AR50" s="14"/>
-      <c r="AS50" s="14"/>
-      <c r="AT50" s="14"/>
-      <c r="AU50" s="14"/>
-      <c r="AV50" s="14"/>
-      <c r="AW50" s="14"/>
-      <c r="AX50" s="14"/>
-      <c r="AY50" s="14"/>
-      <c r="AZ50" s="14"/>
-      <c r="BA50" s="14"/>
-      <c r="BB50" s="14"/>
-      <c r="BC50" s="14"/>
-      <c r="BD50" s="14"/>
-      <c r="BE50" s="14"/>
-      <c r="BF50" s="14"/>
-      <c r="BG50" s="14"/>
+    <row r="50" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39">
+        <v>0</v>
+      </c>
+      <c r="H50" s="48">
+        <v>0</v>
+      </c>
+      <c r="I50" s="59"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46"/>
+      <c r="AJ50" s="46"/>
+      <c r="AK50" s="46"/>
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="45"/>
+      <c r="AO50" s="45"/>
+      <c r="AP50" s="45"/>
+      <c r="AQ50" s="45"/>
+      <c r="AR50" s="45"/>
+      <c r="AS50" s="45"/>
+      <c r="AT50" s="45"/>
+      <c r="AU50" s="45"/>
+      <c r="AV50" s="45"/>
+      <c r="AW50" s="45"/>
+      <c r="AX50" s="45"/>
+      <c r="AY50" s="45"/>
+      <c r="AZ50" s="45"/>
+      <c r="BA50" s="46"/>
+      <c r="BB50" s="46"/>
+      <c r="BC50" s="46"/>
+      <c r="BD50" s="46"/>
+      <c r="BE50" s="46"/>
+      <c r="BF50" s="46"/>
+      <c r="BG50" s="35"/>
+    </row>
+    <row r="51" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39">
+        <v>0</v>
+      </c>
+      <c r="H51" s="40">
+        <v>0</v>
+      </c>
+      <c r="I51" s="59"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="45"/>
+      <c r="AM51" s="45"/>
+      <c r="AN51" s="45"/>
+      <c r="AO51" s="45"/>
+      <c r="AP51" s="45"/>
+      <c r="AQ51" s="45"/>
+      <c r="AR51" s="45"/>
+      <c r="AS51" s="45"/>
+      <c r="AT51" s="45"/>
+      <c r="AU51" s="45"/>
+      <c r="AV51" s="45"/>
+      <c r="AW51" s="45"/>
+      <c r="AX51" s="45"/>
+      <c r="AY51" s="45"/>
+      <c r="AZ51" s="45"/>
+      <c r="BA51" s="46"/>
+      <c r="BB51" s="46"/>
+      <c r="BC51" s="46"/>
+      <c r="BD51" s="46"/>
+      <c r="BE51" s="46"/>
+      <c r="BF51" s="46"/>
+      <c r="BG51" s="35"/>
+    </row>
+    <row r="52" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39">
+        <v>0</v>
+      </c>
+      <c r="H52" s="40">
+        <v>0</v>
+      </c>
+      <c r="I52" s="59"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="46"/>
+      <c r="AL52" s="45"/>
+      <c r="AM52" s="45"/>
+      <c r="AN52" s="45"/>
+      <c r="AO52" s="45"/>
+      <c r="AP52" s="45"/>
+      <c r="AQ52" s="45"/>
+      <c r="AR52" s="45"/>
+      <c r="AS52" s="45"/>
+      <c r="AT52" s="45"/>
+      <c r="AU52" s="45"/>
+      <c r="AV52" s="45"/>
+      <c r="AW52" s="45"/>
+      <c r="AX52" s="45"/>
+      <c r="AY52" s="45"/>
+      <c r="AZ52" s="45"/>
+      <c r="BA52" s="46"/>
+      <c r="BB52" s="46"/>
+      <c r="BC52" s="46"/>
+      <c r="BD52" s="46"/>
+      <c r="BE52" s="46"/>
+      <c r="BF52" s="46"/>
+      <c r="BG52" s="35"/>
+    </row>
+    <row r="53" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="14"/>
+      <c r="AV53" s="14"/>
+      <c r="AW53" s="14"/>
+      <c r="AX53" s="14"/>
+      <c r="AY53" s="14"/>
+      <c r="AZ53" s="14"/>
+      <c r="BA53" s="14"/>
+      <c r="BB53" s="14"/>
+      <c r="BC53" s="14"/>
+      <c r="BD53" s="14"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="14"/>
+      <c r="BG53" s="14"/>
+    </row>
+    <row r="54" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="14"/>
+      <c r="AO54" s="14"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="14"/>
+      <c r="AV54" s="14"/>
+      <c r="AW54" s="14"/>
+      <c r="AX54" s="14"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="14"/>
+      <c r="BB54" s="14"/>
+      <c r="BC54" s="14"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="14"/>
+      <c r="BF54" s="14"/>
+      <c r="BG54" s="14"/>
+    </row>
+    <row r="55" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="14"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="14"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -5034,8 +5460,8 @@
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="H32:H47 H13:H30">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H32:H52 H13:H30">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5043,7 +5469,7 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5052,8 +5478,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentation/Gantt chart.xlsx
+++ b/Documentation/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stupc\Documents\GitHub\trip-clothing-planner\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729EBA35-CB26-4105-BE33-E6999BFA6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0404E-BD89-429A-A648-DB16F8620510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
   <si>
     <t>GANTT CHART SD2 - CHATBOT</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>Update repository</t>
+  </si>
+  <si>
+    <t>Unit test</t>
+  </si>
+  <si>
+    <t>01-apr</t>
+  </si>
+  <si>
+    <t>06-apr</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -945,6 +957,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,7 +979,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,15 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,10 +1321,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG55"/>
+  <dimension ref="A1:BG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC56" sqref="AC56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1331,38 +1343,38 @@
   <sheetData>
     <row r="1" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -1394,36 +1406,36 @@
     </row>
     <row r="2" spans="1:59" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
@@ -1520,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="67"/>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="72" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="67"/>
@@ -1587,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="80"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
@@ -1601,7 +1613,7 @@
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
       <c r="O5" s="67"/>
-      <c r="P5" s="81" t="s">
+      <c r="P5" s="84" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="67"/>
@@ -1650,7 +1662,7 @@
     </row>
     <row r="6" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="83" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="67"/>
@@ -1774,169 +1786,169 @@
     </row>
     <row r="8" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="83" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="71" t="s">
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
       <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="73" t="s">
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="76" t="s">
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="77" t="s">
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="78" t="s">
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="78" t="s">
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="78" t="s">
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="75"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="78"/>
       <c r="BG9" s="19"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="21" t="s">
         <v>25</v>
       </c>
@@ -2091,13 +2103,13 @@
     </row>
     <row r="11" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="21">
         <v>9</v>
       </c>
@@ -4182,21 +4194,23 @@
     </row>
     <row r="38" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
+      <c r="B38" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="C38" s="37" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G38" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H38" s="40">
         <v>0</v>
@@ -4224,12 +4238,12 @@
       <c r="AC38" s="46"/>
       <c r="AD38" s="46"/>
       <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
       <c r="AL38" s="45"/>
       <c r="AM38" s="45"/>
       <c r="AN38" s="45"/>
@@ -4255,21 +4269,23 @@
     </row>
     <row r="39" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
+      <c r="B39" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="C39" s="37" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G39" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H39" s="40">
         <v>0</v>
@@ -4297,12 +4313,12 @@
       <c r="AC39" s="46"/>
       <c r="AD39" s="46"/>
       <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="46"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="46"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
       <c r="AL39" s="45"/>
       <c r="AM39" s="45"/>
       <c r="AN39" s="45"/>
@@ -4328,21 +4344,23 @@
     </row>
     <row r="40" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
+      <c r="B40" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" s="37" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G40" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H40" s="40">
         <v>0</v>
@@ -4370,12 +4388,12 @@
       <c r="AC40" s="46"/>
       <c r="AD40" s="46"/>
       <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="46"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="46"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
       <c r="AL40" s="45"/>
       <c r="AM40" s="45"/>
       <c r="AN40" s="45"/>
@@ -4472,150 +4490,144 @@
       <c r="BF41" s="46"/>
       <c r="BG41" s="35"/>
     </row>
-    <row r="42" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="39">
-        <v>0</v>
-      </c>
-      <c r="H42" s="40">
-        <v>0</v>
-      </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="46"/>
-      <c r="AK42" s="46"/>
-      <c r="AL42" s="45"/>
-      <c r="AM42" s="45"/>
-      <c r="AN42" s="45"/>
-      <c r="AO42" s="45"/>
-      <c r="AP42" s="45"/>
-      <c r="AQ42" s="45"/>
-      <c r="AR42" s="45"/>
-      <c r="AS42" s="45"/>
-      <c r="AT42" s="45"/>
-      <c r="AU42" s="45"/>
-      <c r="AV42" s="45"/>
-      <c r="AW42" s="45"/>
-      <c r="AX42" s="45"/>
-      <c r="AY42" s="45"/>
-      <c r="AZ42" s="45"/>
-      <c r="BA42" s="46"/>
-      <c r="BB42" s="46"/>
-      <c r="BC42" s="46"/>
-      <c r="BD42" s="46"/>
-      <c r="BE42" s="46"/>
-      <c r="BF42" s="46"/>
-      <c r="BG42" s="35"/>
+    <row r="42" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="28">
+        <v>3</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
+      <c r="BC42" s="32"/>
+      <c r="BD42" s="32"/>
+      <c r="BE42" s="32"/>
+      <c r="BF42" s="32"/>
+      <c r="BG42" s="14"/>
     </row>
     <row r="43" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
+      <c r="B43" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="C43" s="37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="E43" s="38">
+        <v>45726</v>
+      </c>
+      <c r="F43" s="38">
+        <v>45774</v>
       </c>
       <c r="G43" s="39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H43" s="40">
-        <v>0</v>
-      </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="46"/>
-      <c r="AJ43" s="46"/>
-      <c r="AK43" s="46"/>
-      <c r="AL43" s="45"/>
-      <c r="AM43" s="45"/>
-      <c r="AN43" s="45"/>
-      <c r="AO43" s="45"/>
-      <c r="AP43" s="45"/>
-      <c r="AQ43" s="45"/>
-      <c r="AR43" s="45"/>
-      <c r="AS43" s="45"/>
-      <c r="AT43" s="45"/>
-      <c r="AU43" s="45"/>
-      <c r="AV43" s="45"/>
-      <c r="AW43" s="45"/>
-      <c r="AX43" s="45"/>
-      <c r="AY43" s="45"/>
-      <c r="AZ43" s="45"/>
-      <c r="BA43" s="46"/>
-      <c r="BB43" s="46"/>
-      <c r="BC43" s="46"/>
-      <c r="BD43" s="46"/>
-      <c r="BE43" s="46"/>
-      <c r="BF43" s="46"/>
+        <v>0.42</v>
+      </c>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="60"/>
+      <c r="AM43" s="60"/>
+      <c r="AN43" s="60"/>
+      <c r="AO43" s="60"/>
+      <c r="AP43" s="60"/>
+      <c r="AQ43" s="60"/>
+      <c r="AR43" s="60"/>
+      <c r="AS43" s="60"/>
+      <c r="AT43" s="60"/>
+      <c r="AU43" s="60"/>
+      <c r="AV43" s="60"/>
+      <c r="AW43" s="60"/>
+      <c r="AX43" s="60"/>
+      <c r="AY43" s="60"/>
+      <c r="AZ43" s="60"/>
+      <c r="BA43" s="61"/>
+      <c r="BB43" s="61"/>
+      <c r="BC43" s="61"/>
+      <c r="BD43" s="61"/>
+      <c r="BE43" s="61"/>
+      <c r="BF43" s="61"/>
       <c r="BG43" s="35"/>
     </row>
     <row r="44" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4627,12 +4639,8 @@
       <c r="D44" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>42</v>
-      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="39">
         <v>0</v>
       </c>
@@ -4700,16 +4708,12 @@
       <c r="D45" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>42</v>
-      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="39">
         <v>0</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="40">
         <v>0</v>
       </c>
       <c r="I45" s="59"/>
@@ -4764,144 +4768,142 @@
       <c r="BF45" s="46"/>
       <c r="BG45" s="35"/>
     </row>
-    <row r="46" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="28">
-        <v>3</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-      <c r="AJ46" s="32"/>
-      <c r="AK46" s="32"/>
-      <c r="AL46" s="32"/>
-      <c r="AM46" s="32"/>
-      <c r="AN46" s="32"/>
-      <c r="AO46" s="32"/>
-      <c r="AP46" s="32"/>
-      <c r="AQ46" s="32"/>
-      <c r="AR46" s="32"/>
-      <c r="AS46" s="32"/>
-      <c r="AT46" s="32"/>
-      <c r="AU46" s="32"/>
-      <c r="AV46" s="32"/>
-      <c r="AW46" s="32"/>
-      <c r="AX46" s="32"/>
-      <c r="AY46" s="32"/>
-      <c r="AZ46" s="32"/>
-      <c r="BA46" s="32"/>
-      <c r="BB46" s="32"/>
-      <c r="BC46" s="32"/>
-      <c r="BD46" s="32"/>
-      <c r="BE46" s="32"/>
-      <c r="BF46" s="32"/>
-      <c r="BG46" s="14"/>
+    <row r="46" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39">
+        <v>0</v>
+      </c>
+      <c r="H46" s="48">
+        <v>0</v>
+      </c>
+      <c r="I46" s="59"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="46"/>
+      <c r="AL46" s="45"/>
+      <c r="AM46" s="45"/>
+      <c r="AN46" s="45"/>
+      <c r="AO46" s="45"/>
+      <c r="AP46" s="45"/>
+      <c r="AQ46" s="45"/>
+      <c r="AR46" s="45"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="45"/>
+      <c r="AU46" s="45"/>
+      <c r="AV46" s="45"/>
+      <c r="AW46" s="45"/>
+      <c r="AX46" s="45"/>
+      <c r="AY46" s="45"/>
+      <c r="AZ46" s="45"/>
+      <c r="BA46" s="46"/>
+      <c r="BB46" s="46"/>
+      <c r="BC46" s="46"/>
+      <c r="BD46" s="46"/>
+      <c r="BE46" s="46"/>
+      <c r="BF46" s="46"/>
+      <c r="BG46" s="35"/>
     </row>
     <row r="47" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="36" t="s">
-        <v>64</v>
-      </c>
+      <c r="B47" s="36"/>
       <c r="C47" s="37" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="38">
-        <v>45726</v>
-      </c>
-      <c r="F47" s="38">
-        <v>45774</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H47" s="40">
-        <v>0.42</v>
-      </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="60"/>
-      <c r="AM47" s="60"/>
-      <c r="AN47" s="60"/>
-      <c r="AO47" s="60"/>
-      <c r="AP47" s="60"/>
-      <c r="AQ47" s="60"/>
-      <c r="AR47" s="60"/>
-      <c r="AS47" s="60"/>
-      <c r="AT47" s="60"/>
-      <c r="AU47" s="60"/>
-      <c r="AV47" s="60"/>
-      <c r="AW47" s="60"/>
-      <c r="AX47" s="60"/>
-      <c r="AY47" s="60"/>
-      <c r="AZ47" s="60"/>
-      <c r="BA47" s="61"/>
-      <c r="BB47" s="61"/>
-      <c r="BC47" s="61"/>
-      <c r="BD47" s="61"/>
-      <c r="BE47" s="61"/>
-      <c r="BF47" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="59"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="45"/>
+      <c r="AN47" s="45"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="45"/>
+      <c r="AU47" s="45"/>
+      <c r="AV47" s="45"/>
+      <c r="AW47" s="45"/>
+      <c r="AX47" s="45"/>
+      <c r="AY47" s="45"/>
+      <c r="AZ47" s="45"/>
+      <c r="BA47" s="46"/>
+      <c r="BB47" s="46"/>
+      <c r="BC47" s="46"/>
+      <c r="BD47" s="46"/>
+      <c r="BE47" s="46"/>
+      <c r="BF47" s="46"/>
       <c r="BG47" s="35"/>
     </row>
     <row r="48" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4973,476 +4975,191 @@
       <c r="BF48" s="46"/>
       <c r="BG48" s="35"/>
     </row>
-    <row r="49" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39">
-        <v>0</v>
-      </c>
-      <c r="H49" s="40">
-        <v>0</v>
-      </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="46"/>
-      <c r="AJ49" s="46"/>
-      <c r="AK49" s="46"/>
-      <c r="AL49" s="45"/>
-      <c r="AM49" s="45"/>
-      <c r="AN49" s="45"/>
-      <c r="AO49" s="45"/>
-      <c r="AP49" s="45"/>
-      <c r="AQ49" s="45"/>
-      <c r="AR49" s="45"/>
-      <c r="AS49" s="45"/>
-      <c r="AT49" s="45"/>
-      <c r="AU49" s="45"/>
-      <c r="AV49" s="45"/>
-      <c r="AW49" s="45"/>
-      <c r="AX49" s="45"/>
-      <c r="AY49" s="45"/>
-      <c r="AZ49" s="45"/>
-      <c r="BA49" s="46"/>
-      <c r="BB49" s="46"/>
-      <c r="BC49" s="46"/>
-      <c r="BD49" s="46"/>
-      <c r="BE49" s="46"/>
-      <c r="BF49" s="46"/>
-      <c r="BG49" s="35"/>
+    <row r="49" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="14"/>
+      <c r="AX49" s="14"/>
+      <c r="AY49" s="14"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14"/>
+      <c r="BB49" s="14"/>
+      <c r="BC49" s="14"/>
+      <c r="BD49" s="14"/>
+      <c r="BE49" s="14"/>
+      <c r="BF49" s="14"/>
+      <c r="BG49" s="14"/>
     </row>
-    <row r="50" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39">
-        <v>0</v>
-      </c>
-      <c r="H50" s="48">
-        <v>0</v>
-      </c>
-      <c r="I50" s="59"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="46"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="46"/>
-      <c r="AJ50" s="46"/>
-      <c r="AK50" s="46"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="45"/>
-      <c r="AO50" s="45"/>
-      <c r="AP50" s="45"/>
-      <c r="AQ50" s="45"/>
-      <c r="AR50" s="45"/>
-      <c r="AS50" s="45"/>
-      <c r="AT50" s="45"/>
-      <c r="AU50" s="45"/>
-      <c r="AV50" s="45"/>
-      <c r="AW50" s="45"/>
-      <c r="AX50" s="45"/>
-      <c r="AY50" s="45"/>
-      <c r="AZ50" s="45"/>
-      <c r="BA50" s="46"/>
-      <c r="BB50" s="46"/>
-      <c r="BC50" s="46"/>
-      <c r="BD50" s="46"/>
-      <c r="BE50" s="46"/>
-      <c r="BF50" s="46"/>
-      <c r="BG50" s="35"/>
+    <row r="50" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="14"/>
+      <c r="BC50" s="14"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="14"/>
+      <c r="BF50" s="14"/>
+      <c r="BG50" s="14"/>
     </row>
-    <row r="51" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39">
-        <v>0</v>
-      </c>
-      <c r="H51" s="40">
-        <v>0</v>
-      </c>
-      <c r="I51" s="59"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="45"/>
-      <c r="AM51" s="45"/>
-      <c r="AN51" s="45"/>
-      <c r="AO51" s="45"/>
-      <c r="AP51" s="45"/>
-      <c r="AQ51" s="45"/>
-      <c r="AR51" s="45"/>
-      <c r="AS51" s="45"/>
-      <c r="AT51" s="45"/>
-      <c r="AU51" s="45"/>
-      <c r="AV51" s="45"/>
-      <c r="AW51" s="45"/>
-      <c r="AX51" s="45"/>
-      <c r="AY51" s="45"/>
-      <c r="AZ51" s="45"/>
-      <c r="BA51" s="46"/>
-      <c r="BB51" s="46"/>
-      <c r="BC51" s="46"/>
-      <c r="BD51" s="46"/>
-      <c r="BE51" s="46"/>
-      <c r="BF51" s="46"/>
-      <c r="BG51" s="35"/>
-    </row>
-    <row r="52" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39">
-        <v>0</v>
-      </c>
-      <c r="H52" s="40">
-        <v>0</v>
-      </c>
-      <c r="I52" s="59"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46"/>
-      <c r="AL52" s="45"/>
-      <c r="AM52" s="45"/>
-      <c r="AN52" s="45"/>
-      <c r="AO52" s="45"/>
-      <c r="AP52" s="45"/>
-      <c r="AQ52" s="45"/>
-      <c r="AR52" s="45"/>
-      <c r="AS52" s="45"/>
-      <c r="AT52" s="45"/>
-      <c r="AU52" s="45"/>
-      <c r="AV52" s="45"/>
-      <c r="AW52" s="45"/>
-      <c r="AX52" s="45"/>
-      <c r="AY52" s="45"/>
-      <c r="AZ52" s="45"/>
-      <c r="BA52" s="46"/>
-      <c r="BB52" s="46"/>
-      <c r="BC52" s="46"/>
-      <c r="BD52" s="46"/>
-      <c r="BE52" s="46"/>
-      <c r="BF52" s="46"/>
-      <c r="BG52" s="35"/>
-    </row>
-    <row r="53" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
-      <c r="AK53" s="14"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="14"/>
-      <c r="AN53" s="14"/>
-      <c r="AO53" s="14"/>
-      <c r="AP53" s="14"/>
-      <c r="AQ53" s="14"/>
-      <c r="AR53" s="14"/>
-      <c r="AS53" s="14"/>
-      <c r="AT53" s="14"/>
-      <c r="AU53" s="14"/>
-      <c r="AV53" s="14"/>
-      <c r="AW53" s="14"/>
-      <c r="AX53" s="14"/>
-      <c r="AY53" s="14"/>
-      <c r="AZ53" s="14"/>
-      <c r="BA53" s="14"/>
-      <c r="BB53" s="14"/>
-      <c r="BC53" s="14"/>
-      <c r="BD53" s="14"/>
-      <c r="BE53" s="14"/>
-      <c r="BF53" s="14"/>
-      <c r="BG53" s="14"/>
-    </row>
-    <row r="54" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AO54" s="14"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="14"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="14"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-      <c r="BB54" s="14"/>
-      <c r="BC54" s="14"/>
-      <c r="BD54" s="14"/>
-      <c r="BE54" s="14"/>
-      <c r="BF54" s="14"/>
-      <c r="BG54" s="14"/>
-    </row>
-    <row r="55" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="14"/>
-      <c r="AN55" s="14"/>
-      <c r="AO55" s="14"/>
-      <c r="AP55" s="14"/>
-      <c r="AQ55" s="14"/>
-      <c r="AR55" s="14"/>
-      <c r="AS55" s="14"/>
-      <c r="AT55" s="14"/>
-      <c r="AU55" s="14"/>
-      <c r="AV55" s="14"/>
-      <c r="AW55" s="14"/>
-      <c r="AX55" s="14"/>
-      <c r="AY55" s="14"/>
-      <c r="AZ55" s="14"/>
-      <c r="BA55" s="14"/>
-      <c r="BB55" s="14"/>
-      <c r="BC55" s="14"/>
-      <c r="BD55" s="14"/>
-      <c r="BE55" s="14"/>
-      <c r="BF55" s="14"/>
-      <c r="BG55" s="14"/>
+    <row r="51" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="14"/>
+      <c r="BC51" s="14"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="14"/>
+      <c r="BG51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="X8:AK8"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B1:AE2"/>
@@ -5459,9 +5176,18 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="X8:AK8"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H32:H52 H13:H30">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="H32:H48 H13:H30">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5469,7 +5195,7 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Documentation/Gantt chart.xlsx
+++ b/Documentation/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stupc\Documents\GitHub\trip-clothing-planner\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0404E-BD89-429A-A648-DB16F8620510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF6652-EBF5-4E37-BF5E-E7076E03BD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>GANTT CHART SD2 - CHATBOT</t>
   </si>
@@ -327,6 +327,36 @@
   </si>
   <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>07-apr</t>
+  </si>
+  <si>
+    <t>18-apr</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>22-apr</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Final documentation</t>
+  </si>
+  <si>
+    <t>27-apr</t>
   </si>
 </sst>
 </file>
@@ -470,7 +500,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,12 +589,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF73C79E"/>
         <bgColor rgb="FF73C79E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -770,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -939,10 +963,6 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,16 +977,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +989,7 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,6 +1012,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,10 +1341,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG51"/>
+  <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1343,38 +1363,38 @@
   <sheetData>
     <row r="1" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -1406,36 +1426,36 @@
     </row>
     <row r="2" spans="1:59" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
@@ -1528,39 +1548,39 @@
     </row>
     <row r="4" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -1595,38 +1615,38 @@
     </row>
     <row r="5" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="84" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="1"/>
@@ -1662,14 +1682,14 @@
     </row>
     <row r="6" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1786,169 +1806,169 @@
     </row>
     <row r="8" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="75" t="s">
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="69"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
       <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="76" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="76" t="s">
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="79" t="s">
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="80" t="s">
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="81" t="s">
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="81" t="s">
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="81" t="s">
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="78"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="73"/>
       <c r="BG9" s="19"/>
     </row>
     <row r="10" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="21" t="s">
         <v>25</v>
       </c>
@@ -2103,13 +2123,13 @@
     </row>
     <row r="11" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="21">
         <v>9</v>
       </c>
@@ -4213,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="H38" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="59"/>
       <c r="J38" s="44"/>
@@ -4288,7 +4308,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="59"/>
       <c r="J39" s="44"/>
@@ -4363,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="59"/>
       <c r="J40" s="44"/>
@@ -4417,235 +4437,243 @@
       <c r="BF40" s="46"/>
       <c r="BG40" s="35"/>
     </row>
-    <row r="41" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="39">
-        <v>0</v>
-      </c>
-      <c r="H41" s="40">
-        <v>0</v>
-      </c>
-      <c r="I41" s="59"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="45"/>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
-      <c r="AT41" s="45"/>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="45"/>
-      <c r="AW41" s="45"/>
-      <c r="AX41" s="45"/>
-      <c r="AY41" s="45"/>
-      <c r="AZ41" s="45"/>
-      <c r="BA41" s="46"/>
-      <c r="BB41" s="46"/>
-      <c r="BC41" s="46"/>
-      <c r="BD41" s="46"/>
-      <c r="BE41" s="46"/>
-      <c r="BF41" s="46"/>
-      <c r="BG41" s="35"/>
+    <row r="41" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="28">
+        <v>3</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="32"/>
+      <c r="AQ41" s="32"/>
+      <c r="AR41" s="32"/>
+      <c r="AS41" s="32"/>
+      <c r="AT41" s="32"/>
+      <c r="AU41" s="32"/>
+      <c r="AV41" s="32"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="32"/>
+      <c r="AY41" s="32"/>
+      <c r="AZ41" s="32"/>
+      <c r="BA41" s="32"/>
+      <c r="BB41" s="32"/>
+      <c r="BC41" s="32"/>
+      <c r="BD41" s="32"/>
+      <c r="BE41" s="32"/>
+      <c r="BF41" s="32"/>
+      <c r="BG41" s="14"/>
     </row>
-    <row r="42" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="28">
-        <v>3</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="32"/>
-      <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="32"/>
-      <c r="AS42" s="32"/>
-      <c r="AT42" s="32"/>
-      <c r="AU42" s="32"/>
-      <c r="AV42" s="32"/>
-      <c r="AW42" s="32"/>
-      <c r="AX42" s="32"/>
-      <c r="AY42" s="32"/>
-      <c r="AZ42" s="32"/>
-      <c r="BA42" s="32"/>
-      <c r="BB42" s="32"/>
-      <c r="BC42" s="32"/>
-      <c r="BD42" s="32"/>
-      <c r="BE42" s="32"/>
-      <c r="BF42" s="32"/>
-      <c r="BG42" s="14"/>
+    <row r="42" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="38">
+        <v>45726</v>
+      </c>
+      <c r="F42" s="38">
+        <v>45774</v>
+      </c>
+      <c r="G42" s="39">
+        <v>50</v>
+      </c>
+      <c r="H42" s="40">
+        <v>1</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="41"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="41"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="41"/>
+      <c r="AX42" s="41"/>
+      <c r="AY42" s="41"/>
+      <c r="AZ42" s="41"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="41"/>
+      <c r="BC42" s="41"/>
+      <c r="BD42" s="41"/>
+      <c r="BE42" s="41"/>
+      <c r="BF42" s="41"/>
+      <c r="BG42" s="35"/>
     </row>
     <row r="43" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="38">
-        <v>45726</v>
-      </c>
-      <c r="F43" s="38">
-        <v>45774</v>
+        <v>36</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="G43" s="39">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H43" s="40">
-        <v>0.42</v>
-      </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="41"/>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="60"/>
-      <c r="AM43" s="60"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="60"/>
-      <c r="AP43" s="60"/>
-      <c r="AQ43" s="60"/>
-      <c r="AR43" s="60"/>
-      <c r="AS43" s="60"/>
-      <c r="AT43" s="60"/>
-      <c r="AU43" s="60"/>
-      <c r="AV43" s="60"/>
-      <c r="AW43" s="60"/>
-      <c r="AX43" s="60"/>
-      <c r="AY43" s="60"/>
-      <c r="AZ43" s="60"/>
-      <c r="BA43" s="61"/>
-      <c r="BB43" s="61"/>
-      <c r="BC43" s="61"/>
-      <c r="BD43" s="61"/>
-      <c r="BE43" s="61"/>
-      <c r="BF43" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="41"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="41"/>
+      <c r="AO43" s="41"/>
+      <c r="AP43" s="41"/>
+      <c r="AQ43" s="41"/>
+      <c r="AR43" s="41"/>
+      <c r="AS43" s="41"/>
+      <c r="AT43" s="41"/>
+      <c r="AU43" s="41"/>
+      <c r="AV43" s="41"/>
+      <c r="AW43" s="41"/>
+      <c r="AX43" s="45"/>
+      <c r="AY43" s="45"/>
+      <c r="AZ43" s="45"/>
+      <c r="BA43" s="46"/>
+      <c r="BB43" s="46"/>
+      <c r="BC43" s="46"/>
+      <c r="BD43" s="46"/>
+      <c r="BE43" s="46"/>
+      <c r="BF43" s="46"/>
       <c r="BG43" s="35"/>
     </row>
     <row r="44" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="C44" s="37" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="G44" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="59"/>
       <c r="J44" s="44"/>
@@ -4687,11 +4715,11 @@
       <c r="AT44" s="45"/>
       <c r="AU44" s="45"/>
       <c r="AV44" s="45"/>
-      <c r="AW44" s="45"/>
-      <c r="AX44" s="45"/>
-      <c r="AY44" s="45"/>
-      <c r="AZ44" s="45"/>
-      <c r="BA44" s="46"/>
+      <c r="AW44" s="41"/>
+      <c r="AX44" s="41"/>
+      <c r="AY44" s="41"/>
+      <c r="AZ44" s="41"/>
+      <c r="BA44" s="41"/>
       <c r="BB44" s="46"/>
       <c r="BC44" s="46"/>
       <c r="BD44" s="46"/>
@@ -4701,20 +4729,26 @@
     </row>
     <row r="45" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
+      <c r="B45" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="C45" s="37" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="G45" s="39">
-        <v>0</v>
-      </c>
-      <c r="H45" s="40">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H45" s="48">
+        <v>1</v>
       </c>
       <c r="I45" s="59"/>
       <c r="J45" s="44"/>
@@ -4761,29 +4795,35 @@
       <c r="AY45" s="45"/>
       <c r="AZ45" s="45"/>
       <c r="BA45" s="46"/>
-      <c r="BB45" s="46"/>
-      <c r="BC45" s="46"/>
-      <c r="BD45" s="46"/>
-      <c r="BE45" s="46"/>
-      <c r="BF45" s="46"/>
+      <c r="BB45" s="41"/>
+      <c r="BC45" s="41"/>
+      <c r="BD45" s="41"/>
+      <c r="BE45" s="41"/>
+      <c r="BF45" s="41"/>
       <c r="BG45" s="35"/>
     </row>
     <row r="46" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="C46" s="37" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="G46" s="39">
-        <v>0</v>
-      </c>
-      <c r="H46" s="48">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H46" s="40">
+        <v>1</v>
       </c>
       <c r="I46" s="59"/>
       <c r="J46" s="44"/>
@@ -4830,11 +4870,11 @@
       <c r="AY46" s="45"/>
       <c r="AZ46" s="45"/>
       <c r="BA46" s="46"/>
-      <c r="BB46" s="46"/>
-      <c r="BC46" s="46"/>
-      <c r="BD46" s="46"/>
-      <c r="BE46" s="46"/>
-      <c r="BF46" s="46"/>
+      <c r="BB46" s="41"/>
+      <c r="BC46" s="41"/>
+      <c r="BD46" s="41"/>
+      <c r="BE46" s="41"/>
+      <c r="BF46" s="41"/>
       <c r="BG46" s="35"/>
     </row>
     <row r="47" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4906,84 +4946,76 @@
       <c r="BF47" s="46"/>
       <c r="BG47" s="35"/>
     </row>
-    <row r="48" spans="1:59" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39">
-        <v>0</v>
-      </c>
-      <c r="H48" s="40">
-        <v>0</v>
-      </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
-      <c r="AP48" s="45"/>
-      <c r="AQ48" s="45"/>
-      <c r="AR48" s="45"/>
-      <c r="AS48" s="45"/>
-      <c r="AT48" s="45"/>
-      <c r="AU48" s="45"/>
-      <c r="AV48" s="45"/>
-      <c r="AW48" s="45"/>
-      <c r="AX48" s="45"/>
-      <c r="AY48" s="45"/>
-      <c r="AZ48" s="45"/>
-      <c r="BA48" s="46"/>
-      <c r="BB48" s="46"/>
-      <c r="BC48" s="46"/>
-      <c r="BD48" s="46"/>
-      <c r="BE48" s="46"/>
-      <c r="BF48" s="46"/>
-      <c r="BG48" s="35"/>
+    <row r="48" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="14"/>
+      <c r="BB48" s="14"/>
+      <c r="BC48" s="14"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="14"/>
+      <c r="BF48" s="14"/>
+      <c r="BG48" s="14"/>
     </row>
     <row r="49" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
@@ -5041,10 +5073,10 @@
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
@@ -5097,69 +5129,17 @@
       <c r="BF50" s="14"/>
       <c r="BG50" s="14"/>
     </row>
-    <row r="51" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="14"/>
-      <c r="AN51" s="14"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
-      <c r="AQ51" s="14"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="14"/>
-      <c r="AT51" s="14"/>
-      <c r="AU51" s="14"/>
-      <c r="AV51" s="14"/>
-      <c r="AW51" s="14"/>
-      <c r="AX51" s="14"/>
-      <c r="AY51" s="14"/>
-      <c r="AZ51" s="14"/>
-      <c r="BA51" s="14"/>
-      <c r="BB51" s="14"/>
-      <c r="BC51" s="14"/>
-      <c r="BD51" s="14"/>
-      <c r="BE51" s="14"/>
-      <c r="BF51" s="14"/>
-      <c r="BG51" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="X8:AK8"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B1:AE2"/>
@@ -5176,18 +5156,9 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="X8:AK8"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H32:H48 H13:H30">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="H32:H47 H13:H30">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5195,7 +5166,7 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
